--- a/Data Science Introdução a análise de series temporais/Series Temporais data-analysis-a2.xlsx
+++ b/Data Science Introdução a análise de series temporais/Series Temporais data-analysis-a2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wcamentoring-my.sharepoint.com/personal/alexsandro_ignacio_wca-ec_com_br/Documents/Documentos/Docs/Git/python_developer/Data Science Introdução a análise de series temporais/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="80" documentId="11_FC17CB62E7360FE4EDF2EA4D871133BE0AD63A1F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C47556B5-34AC-4224-9D9B-446A16EBC9CB}"/>
+  <xr:revisionPtr revIDLastSave="138" documentId="11_FC17CB62E7360FE4EDF2EA4D871133BE0AD63A1F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{60F0F4F4-FB0A-4BB1-9CFC-4AC55AA56EA6}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="661" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="661" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vendas por Dia" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
   <si>
     <t>Data</t>
   </si>
@@ -77,12 +77,6 @@
   </si>
   <si>
     <t>Dias úteis</t>
-  </si>
-  <si>
-    <t>fins de semana</t>
-  </si>
-  <si>
-    <t>feriados</t>
   </si>
   <si>
     <t>(feriado cai no domingo)</t>
@@ -101,6 +95,15 @@
   </si>
   <si>
     <t>Aceleração</t>
+  </si>
+  <si>
+    <t>Fins de semana</t>
+  </si>
+  <si>
+    <t>Feriados</t>
+  </si>
+  <si>
+    <t>Visitanter por final de semana</t>
   </si>
 </sst>
 </file>
@@ -131,15 +134,15 @@
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Segoe UI"/>
-      <charset val="1"/>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -170,7 +173,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -193,8 +196,20 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -922,6 +937,555 @@
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
         <a:schemeClr val="accent1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Visitantes no Site por Mês por final de</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR" baseline="0"/>
+              <a:t> semana</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Visitas no site por mẽs'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Aceleração</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Visitas no site por mẽs'!$A$2:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>d"-"mmm"-"yyyy</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>41640</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41671</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41699</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41730</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41760</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41791</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41821</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41852</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41883</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41913</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41944</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>41974</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42005</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42036</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42064</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42095</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42125</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42156</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42186</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>42217</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42248</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42278</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42309</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>42339</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Visitas no site por mẽs'!$F$2:$F$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="2">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000019-7525-47A7-8F1E-55AAEAF5F977}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1312709087"/>
+        <c:axId val="1312708255"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="1312709087"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Tempo (Mês)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="d&quot;-&quot;mmm&quot;-&quot;yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1312708255"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="1312708255"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Aceleração do aumento</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1312709087"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
       </a:solidFill>
       <a:round/>
     </a:ln>
@@ -3139,7 +3703,2529 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Visitantes no Site por dia</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Visitas no site por dia'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Visitantes no Site</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Visitas no site por dia'!$A$2:$A$60</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="59"/>
+                <c:pt idx="0">
+                  <c:v>42005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42007</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42008</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42009</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42010</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42011</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42012</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42013</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42014</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42015</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42016</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42017</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42018</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42019</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42020</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42021</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42022</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42023</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>42024</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42025</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42026</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42027</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>42028</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>42029</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>42030</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>42031</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>42032</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>42033</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>42034</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>42035</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>42036</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>42037</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>42038</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>42039</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>42040</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>42041</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>42042</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>42043</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>42044</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>42045</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42046</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42047</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>42048</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>42049</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>42050</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>42051</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>42052</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>42053</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>42054</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>42055</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>42056</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>42057</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>42058</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>42059</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>42060</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>42061</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>42062</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>42063</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Visitas no site por dia'!$B$2:$B$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="59"/>
+                <c:pt idx="0">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>81</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3C07-4261-8BBB-A26F5B857F4A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1312709087"/>
+        <c:axId val="1312708255"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="1312709087"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Tempo (em dia)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1312708255"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="1312708255"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Quantidade de Visitantes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1312709087"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Visitantes no Site por Mês</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Visitas no site por mẽs'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Visitantes no Site</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Visitas no site por mẽs'!$A$2:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>d"-"mmm"-"yyyy</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>41640</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41671</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41699</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41730</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41760</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41791</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41821</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41852</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41883</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41913</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41944</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>41974</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42005</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42036</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42064</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42095</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42125</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42156</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42186</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>42217</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42248</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42278</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42309</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>42339</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Visitas no site por mẽs'!$B$2:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>880</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3240</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3840</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5670</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7380</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8096</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12390</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11792</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13984</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18480</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>23436</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>23392</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>29304</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>28960</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>35280</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>38720</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>52710</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>45864</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>55944</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>60300</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>57728</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-43D2-4A32-B3D8-E65EBC41748A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1312709087"/>
+        <c:axId val="1312708255"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="1312709087"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Tempo (Mês)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="d&quot;-&quot;mmm&quot;-&quot;yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1312708255"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="1312708255"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Quantidade de Visitantes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1312709087"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Visitantes no Site por Mês por final de</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR" baseline="0"/>
+              <a:t> semana</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Visitas no site por mẽs'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Visitanter por final de semana</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Visitas no site por mẽs'!$A$2:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>d"-"mmm"-"yyyy</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>41640</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41671</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41699</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41730</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41760</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41791</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41821</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41852</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41883</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41913</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41944</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>41974</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42005</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42036</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42064</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42095</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42125</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42156</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42186</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>42217</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42248</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42278</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42309</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>42339</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Visitas no site por mẽs'!$D$2:$D$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>324</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>820</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1012</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1239</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1474</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1748</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2310</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2604</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2924</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3256</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3620</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4410</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4840</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5271</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5733</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6216</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6700</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7216</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1777-4243-BE86-1C724DB2D423}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1312709087"/>
+        <c:axId val="1312708255"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="1312709087"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Tempo (Mês)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="d&quot;-&quot;mmm&quot;-&quot;yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1312708255"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="1312708255"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Quantidade de Visitantes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1312709087"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Visitantes no Site por Mês por final de</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR" baseline="0"/>
+              <a:t> semana</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Visitas no site por mẽs'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Aumento</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Visitas no site por mẽs'!$A$2:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>d"-"mmm"-"yyyy</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>41640</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41671</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41699</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41730</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41760</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41791</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41821</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41852</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41883</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41913</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41944</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>41974</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42005</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42036</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42064</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42095</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42125</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42156</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42186</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>42217</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42248</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42278</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42309</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>42339</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Visitas no site por mẽs'!$E$2:$E$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="1">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>227</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>274</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>272</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>332</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>364</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>431</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>462</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>483</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>484</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>516</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-141D-452C-838E-81BF454E9273}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1312709087"/>
+        <c:axId val="1312708255"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="1312709087"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Tempo (Mês)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="d&quot;-&quot;mmm&quot;-&quot;yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1312708255"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="1312708255"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Aumento</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-BR" baseline="0"/>
+                  <a:t> de </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Quantidade de Visitantes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1312709087"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3339,6 +6425,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -3855,7 +7101,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4371,7 +7617,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4887,7 +8133,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5403,7 +8649,2587 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6109,6 +11935,204 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>290511</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAF27514-2959-4E71-ADB5-F7361F08503F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>847725</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B540D8D-12A8-44F2-9CA1-9FCF833EF628}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>929368</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>107496</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>687160</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>50346</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D861F286-4329-408F-86AE-1A98C3659038}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>129267</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>110217</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>853167</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B44F8FE-9817-4285-8D1D-EEFAF2CCF27F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>907596</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>126546</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>665388</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>178253</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6648FACB-4F3A-4F9D-B14D-7CE84F9C8C32}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <person displayName="Alexsandro" id="{CB8D8767-7A94-465B-9A67-1AFF7DF0500D}" userId="S::alexsandro.ignacio@wca-ec.com.br::dc9033b7-d9dc-4e5d-b217-13fe03f80593" providerId="AD"/>
@@ -6444,7 +12468,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6933,8 +12957,8 @@
   </sheetPr>
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q30" sqref="Q30"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6955,13 +12979,13 @@
         <v>4</v>
       </c>
       <c r="D1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7518,8 +13542,8 @@
   </sheetPr>
   <dimension ref="A1:B60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8011,6 +14035,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8019,221 +14044,585 @@
   <sheetPr>
     <tabColor theme="8"/>
   </sheetPr>
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="2"/>
-    <col min="2" max="2" width="16.5703125" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="14.42578125" style="2"/>
+    <col min="1" max="1" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="14.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" s="11" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>41640</v>
       </c>
       <c r="B2" s="4">
         <v>880</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2" s="5">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2">
+        <f>B2/C2</f>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>41671</v>
       </c>
       <c r="B3" s="4">
         <v>1600</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C3" s="5">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2">
+        <f t="shared" ref="D3:D25" si="0">B3/C3</f>
+        <v>200</v>
+      </c>
+      <c r="E3" s="2">
+        <f>D3-D2</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>41699</v>
       </c>
       <c r="B4" s="4">
         <v>3240</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C4" s="5">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2">
+        <f t="shared" si="0"/>
+        <v>324</v>
+      </c>
+      <c r="E4" s="2">
+        <f t="shared" ref="E4:F25" si="1">D4-D3</f>
+        <v>124</v>
+      </c>
+      <c r="F4" s="2">
+        <f>E4-E3</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>41730</v>
       </c>
       <c r="B5" s="4">
         <v>3840</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C5" s="5">
+        <v>8</v>
+      </c>
+      <c r="D5" s="2">
+        <f t="shared" si="0"/>
+        <v>480</v>
+      </c>
+      <c r="E5" s="2">
+        <f t="shared" si="1"/>
+        <v>156</v>
+      </c>
+      <c r="F5" s="2">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>41760</v>
       </c>
       <c r="B6" s="4">
         <v>5670</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C6" s="5">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" si="0"/>
+        <v>630</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" si="1"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>41791</v>
       </c>
       <c r="B7" s="4">
         <v>7380</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C7" s="5">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" si="0"/>
+        <v>820</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="1"/>
+        <v>190</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>41821</v>
       </c>
       <c r="B8" s="4">
         <v>8096</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C8" s="5">
+        <v>8</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" si="0"/>
+        <v>1012</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" si="1"/>
+        <v>192</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>41852</v>
       </c>
       <c r="B9" s="4">
         <v>12390</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C9" s="5">
+        <v>10</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" si="0"/>
+        <v>1239</v>
+      </c>
+      <c r="E9" s="2">
+        <f t="shared" si="1"/>
+        <v>227</v>
+      </c>
+      <c r="F9" s="2">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>41883</v>
       </c>
       <c r="B10" s="4">
         <v>11792</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C10" s="5">
+        <v>8</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" si="0"/>
+        <v>1474</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" si="1"/>
+        <v>235</v>
+      </c>
+      <c r="F10" s="2">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>41913</v>
       </c>
       <c r="B11" s="4">
         <v>13984</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C11" s="5">
+        <v>8</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="0"/>
+        <v>1748</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="shared" si="1"/>
+        <v>274</v>
+      </c>
+      <c r="F11" s="2">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>41944</v>
       </c>
       <c r="B12" s="4">
         <v>20200</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C12" s="5">
+        <v>10</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" si="0"/>
+        <v>2020</v>
+      </c>
+      <c r="E12" s="2">
+        <f t="shared" si="1"/>
+        <v>272</v>
+      </c>
+      <c r="F12" s="2">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>41974</v>
       </c>
       <c r="B13" s="4">
         <v>18480</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C13" s="5">
+        <v>8</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" si="0"/>
+        <v>2310</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="1"/>
+        <v>290</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>42005</v>
       </c>
       <c r="B14" s="4">
         <v>23436</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C14" s="5">
+        <v>9</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" si="0"/>
+        <v>2604</v>
+      </c>
+      <c r="E14" s="2">
+        <f t="shared" si="1"/>
+        <v>294</v>
+      </c>
+      <c r="F14" s="2">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>42036</v>
       </c>
       <c r="B15" s="4">
         <v>23392</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C15" s="5">
+        <v>8</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" si="0"/>
+        <v>2924</v>
+      </c>
+      <c r="E15" s="2">
+        <f t="shared" si="1"/>
+        <v>320</v>
+      </c>
+      <c r="F15" s="2">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
         <v>42064</v>
       </c>
       <c r="B16" s="4">
         <v>29304</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C16" s="5">
+        <v>9</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" si="0"/>
+        <v>3256</v>
+      </c>
+      <c r="E16" s="2">
+        <f t="shared" si="1"/>
+        <v>332</v>
+      </c>
+      <c r="F16" s="2">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
         <v>42095</v>
       </c>
       <c r="B17" s="4">
         <v>28960</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C17" s="5">
+        <v>8</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" si="0"/>
+        <v>3620</v>
+      </c>
+      <c r="E17" s="2">
+        <f t="shared" si="1"/>
+        <v>364</v>
+      </c>
+      <c r="F17" s="2">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <v>42125</v>
       </c>
       <c r="B18" s="4">
         <v>40000</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C18" s="5">
+        <v>10</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="shared" si="1"/>
+        <v>380</v>
+      </c>
+      <c r="F18" s="2">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
         <v>42156</v>
       </c>
       <c r="B19" s="4">
         <v>35280</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C19" s="5">
+        <v>8</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" si="0"/>
+        <v>4410</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="1"/>
+        <v>410</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
         <v>42186</v>
       </c>
       <c r="B20" s="4">
         <v>38720</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C20" s="5">
+        <v>8</v>
+      </c>
+      <c r="D20" s="2">
+        <f t="shared" si="0"/>
+        <v>4840</v>
+      </c>
+      <c r="E20" s="2">
+        <f t="shared" si="1"/>
+        <v>430</v>
+      </c>
+      <c r="F20" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
         <v>42217</v>
       </c>
       <c r="B21" s="4">
         <v>52710</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C21" s="5">
+        <v>10</v>
+      </c>
+      <c r="D21" s="2">
+        <f t="shared" si="0"/>
+        <v>5271</v>
+      </c>
+      <c r="E21" s="2">
+        <f t="shared" si="1"/>
+        <v>431</v>
+      </c>
+      <c r="F21" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
         <v>42248</v>
       </c>
       <c r="B22" s="4">
         <v>45864</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C22" s="5">
+        <v>8</v>
+      </c>
+      <c r="D22" s="2">
+        <f t="shared" si="0"/>
+        <v>5733</v>
+      </c>
+      <c r="E22" s="2">
+        <f t="shared" si="1"/>
+        <v>462</v>
+      </c>
+      <c r="F22" s="2">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
         <v>42278</v>
       </c>
       <c r="B23" s="4">
         <v>55944</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C23" s="5">
+        <v>9</v>
+      </c>
+      <c r="D23" s="2">
+        <f t="shared" si="0"/>
+        <v>6216</v>
+      </c>
+      <c r="E23" s="2">
+        <f t="shared" si="1"/>
+        <v>483</v>
+      </c>
+      <c r="F23" s="2">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
         <v>42309</v>
       </c>
       <c r="B24" s="4">
         <v>60300</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C24" s="5">
+        <v>9</v>
+      </c>
+      <c r="D24" s="2">
+        <f t="shared" si="0"/>
+        <v>6700</v>
+      </c>
+      <c r="E24" s="2">
+        <f t="shared" si="1"/>
+        <v>484</v>
+      </c>
+      <c r="F24" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
         <v>42339</v>
       </c>
       <c r="B25" s="4">
         <v>57728</v>
       </c>
+      <c r="C25" s="5">
+        <v>8</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" si="0"/>
+        <v>7216</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" si="1"/>
+        <v>516</v>
+      </c>
+      <c r="F25" s="2">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -8244,8 +14633,8 @@
   </sheetPr>
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B1:B25"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8263,10 +14652,10 @@
         <v>4</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E1" s="5"/>
     </row>
@@ -8404,7 +14793,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8421,7 +14810,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8438,7 +14827,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8620,7 +15009,7 @@
         <v>1</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
